--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
@@ -534,52 +534,52 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H2">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I2">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J2">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N2">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O2">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P2">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q2">
-        <v>0.1656065899312197</v>
+        <v>0.328079769745</v>
       </c>
       <c r="R2">
-        <v>0.1656065899312197</v>
+        <v>2.952717927705</v>
       </c>
       <c r="S2">
-        <v>0.006458221346888824</v>
+        <v>0.007522818902071779</v>
       </c>
       <c r="T2">
-        <v>0.006458221346888824</v>
+        <v>0.01005553195033437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H3">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I3">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J3">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N3">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O3">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P3">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q3">
-        <v>2.032425134721808</v>
+        <v>2.321291755615</v>
       </c>
       <c r="R3">
-        <v>2.032425134721808</v>
+        <v>20.891625800535</v>
       </c>
       <c r="S3">
-        <v>0.07925923356350283</v>
+        <v>0.05322686464312249</v>
       </c>
       <c r="T3">
-        <v>0.07925923356350283</v>
+        <v>0.07114679284485244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H4">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I4">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J4">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N4">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O4">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P4">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q4">
-        <v>0.4366974995387396</v>
+        <v>0.483298325125</v>
       </c>
       <c r="R4">
-        <v>0.4366974995387396</v>
+        <v>4.349684926125001</v>
       </c>
       <c r="S4">
-        <v>0.0170300536640806</v>
+        <v>0.01108195661809895</v>
       </c>
       <c r="T4">
-        <v>0.0170300536640806</v>
+        <v>0.01481292721466741</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H5">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I5">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J5">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N5">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O5">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P5">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q5">
-        <v>0.3809350910704893</v>
+        <v>0.507849969655</v>
       </c>
       <c r="R5">
-        <v>0.3809350910704893</v>
+        <v>4.570649726895</v>
       </c>
       <c r="S5">
-        <v>0.0148554664277082</v>
+        <v>0.01164492206912565</v>
       </c>
       <c r="T5">
-        <v>0.0148554664277082</v>
+        <v>0.01556542666380002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H6">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I6">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J6">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N6">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O6">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P6">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q6">
-        <v>4.175107467671443</v>
+        <v>6.886338644272501</v>
       </c>
       <c r="R6">
-        <v>4.175107467671443</v>
+        <v>41.318031865635</v>
       </c>
       <c r="S6">
-        <v>0.1628182078048303</v>
+        <v>0.1579026910420771</v>
       </c>
       <c r="T6">
-        <v>0.1628182078048303</v>
+        <v>0.1407092718378129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.417963708183947</v>
+        <v>0.472982</v>
       </c>
       <c r="H7">
-        <v>0.417963708183947</v>
+        <v>1.418946</v>
       </c>
       <c r="I7">
-        <v>0.3755025488416036</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J7">
-        <v>0.3755025488416036</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N7">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O7">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P7">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q7">
-        <v>0.221758199582719</v>
+        <v>0.4559904369713333</v>
       </c>
       <c r="R7">
-        <v>0.221758199582719</v>
+        <v>4.103913932742</v>
       </c>
       <c r="S7">
-        <v>0.008647986405538328</v>
+        <v>0.01045579092267147</v>
       </c>
       <c r="T7">
-        <v>0.008647986405538328</v>
+        <v>0.01397594984773381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.417963708183947</v>
+        <v>0.472982</v>
       </c>
       <c r="H8">
-        <v>0.417963708183947</v>
+        <v>1.418946</v>
       </c>
       <c r="I8">
-        <v>0.3755025488416036</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J8">
-        <v>0.3755025488416036</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N8">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O8">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P8">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q8">
-        <v>2.721551955449132</v>
+        <v>3.226309390559334</v>
       </c>
       <c r="R8">
-        <v>2.721551955449132</v>
+        <v>29.036784515034</v>
       </c>
       <c r="S8">
-        <v>0.1061333666893841</v>
+        <v>0.07397878048407563</v>
       </c>
       <c r="T8">
-        <v>0.1061333666893841</v>
+        <v>0.09888527166319624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.417963708183947</v>
+        <v>0.472982</v>
       </c>
       <c r="H9">
-        <v>0.417963708183947</v>
+        <v>1.418946</v>
       </c>
       <c r="I9">
-        <v>0.3755025488416036</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J9">
-        <v>0.3755025488416036</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N9">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O9">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P9">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q9">
-        <v>0.5847668942413863</v>
+        <v>0.6717250948833334</v>
       </c>
       <c r="R9">
-        <v>0.5847668942413863</v>
+        <v>6.04552585395</v>
       </c>
       <c r="S9">
-        <v>0.02280437053206694</v>
+        <v>0.01540255360674006</v>
       </c>
       <c r="T9">
-        <v>0.02280437053206694</v>
+        <v>0.02058814281261756</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.417963708183947</v>
+        <v>0.472982</v>
       </c>
       <c r="H10">
-        <v>0.417963708183947</v>
+        <v>1.418946</v>
       </c>
       <c r="I10">
-        <v>0.3755025488416036</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J10">
-        <v>0.3755025488416036</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N10">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O10">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P10">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q10">
-        <v>0.5100973336191239</v>
+        <v>0.7058488542553333</v>
       </c>
       <c r="R10">
-        <v>0.5100973336191239</v>
+        <v>6.352639688298</v>
       </c>
       <c r="S10">
-        <v>0.01989245410063879</v>
+        <v>0.01618500618591907</v>
       </c>
       <c r="T10">
-        <v>0.01989245410063879</v>
+        <v>0.02163402428497219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.417963708183947</v>
+        <v>0.472982</v>
       </c>
       <c r="H11">
-        <v>0.417963708183947</v>
+        <v>1.418946</v>
       </c>
       <c r="I11">
-        <v>0.3755025488416036</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J11">
-        <v>0.3755025488416036</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N11">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O11">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P11">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q11">
-        <v>5.590745606679769</v>
+        <v>9.571161824379001</v>
       </c>
       <c r="R11">
-        <v>5.590745606679769</v>
+        <v>57.426970946274</v>
       </c>
       <c r="S11">
-        <v>0.2180243711139755</v>
+        <v>0.2194652756041307</v>
       </c>
       <c r="T11">
-        <v>0.2180243711139755</v>
+        <v>0.1955685423734369</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2179485360073</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H12">
-        <v>0.2179485360073</v>
+        <v>1.240909</v>
       </c>
       <c r="I12">
-        <v>0.1958070262670247</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J12">
-        <v>0.1958070262670247</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N12">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O12">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P12">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q12">
-        <v>0.115636534943836</v>
+        <v>0.3987767238158889</v>
       </c>
       <c r="R12">
-        <v>0.115636534943836</v>
+        <v>3.588990514343</v>
       </c>
       <c r="S12">
-        <v>0.00450952065835486</v>
+        <v>0.009143889237547678</v>
       </c>
       <c r="T12">
-        <v>0.00450952065835486</v>
+        <v>0.01222236924421473</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2179485360073</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H13">
-        <v>0.2179485360073</v>
+        <v>1.240909</v>
       </c>
       <c r="I13">
-        <v>0.1958070262670247</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J13">
-        <v>0.1958070262670247</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N13">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O13">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P13">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q13">
-        <v>1.419162125188372</v>
+        <v>2.821500155417889</v>
       </c>
       <c r="R13">
-        <v>1.419162125188372</v>
+        <v>25.393501398761</v>
       </c>
       <c r="S13">
-        <v>0.05534358949963405</v>
+        <v>0.06469656668521129</v>
       </c>
       <c r="T13">
-        <v>0.05534358949963405</v>
+        <v>0.08647800802448098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2179485360073</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H14">
-        <v>0.2179485360073</v>
+        <v>1.240909</v>
       </c>
       <c r="I14">
-        <v>0.1958070262670247</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J14">
-        <v>0.1958070262670247</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N14">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O14">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P14">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q14">
-        <v>0.3049286002825754</v>
+        <v>0.5874428736305556</v>
       </c>
       <c r="R14">
-        <v>0.3049286002825754</v>
+        <v>5.286985862675</v>
       </c>
       <c r="S14">
-        <v>0.01189141323687513</v>
+        <v>0.01346997517423933</v>
       </c>
       <c r="T14">
-        <v>0.01189141323687513</v>
+        <v>0.01800492175844778</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2179485360073</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H15">
-        <v>0.2179485360073</v>
+        <v>1.240909</v>
       </c>
       <c r="I15">
-        <v>0.1958070262670247</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J15">
-        <v>0.1958070262670247</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N15">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O15">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P15">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q15">
-        <v>0.265991914864022</v>
+        <v>0.6172850805352221</v>
       </c>
       <c r="R15">
-        <v>0.265991914864022</v>
+        <v>5.555565724817</v>
       </c>
       <c r="S15">
-        <v>0.01037298493609535</v>
+        <v>0.01415425241070671</v>
       </c>
       <c r="T15">
-        <v>0.01037298493609535</v>
+        <v>0.0189195751222672</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2179485360073</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H16">
-        <v>0.2179485360073</v>
+        <v>1.240909</v>
       </c>
       <c r="I16">
-        <v>0.1958070262670247</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J16">
-        <v>0.1958070262670247</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N16">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O16">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P16">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q16">
-        <v>2.915312493181434</v>
+        <v>8.370255702703501</v>
       </c>
       <c r="R16">
-        <v>2.915312493181434</v>
+        <v>50.221534216221</v>
       </c>
       <c r="S16">
-        <v>0.1136895179360653</v>
+        <v>0.1919286820531903</v>
       </c>
       <c r="T16">
-        <v>0.1136895179360653</v>
+        <v>0.1710303030193391</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.165035263868059</v>
+        <v>0.182912</v>
       </c>
       <c r="H17">
-        <v>0.165035263868059</v>
+        <v>0.365824</v>
       </c>
       <c r="I17">
-        <v>0.1482692420843608</v>
+        <v>0.129739974361072</v>
       </c>
       <c r="J17">
-        <v>0.1482692420843608</v>
+        <v>0.09040294133782634</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N17">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O17">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P17">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q17">
-        <v>0.08756244206478539</v>
+        <v>0.1763410083413333</v>
       </c>
       <c r="R17">
-        <v>0.08756244206478539</v>
+        <v>1.058046050048</v>
       </c>
       <c r="S17">
-        <v>0.003414704890447762</v>
+        <v>0.00404347232928036</v>
       </c>
       <c r="T17">
-        <v>0.003414704890447762</v>
+        <v>0.003603194115278081</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.165035263868059</v>
+        <v>0.182912</v>
       </c>
       <c r="H18">
-        <v>0.165035263868059</v>
+        <v>0.365824</v>
       </c>
       <c r="I18">
-        <v>0.1482692420843608</v>
+        <v>0.129739974361072</v>
       </c>
       <c r="J18">
-        <v>0.1482692420843608</v>
+        <v>0.09040294133782634</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N18">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O18">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P18">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q18">
-        <v>1.074619724879334</v>
+        <v>1.247681102549334</v>
       </c>
       <c r="R18">
-        <v>1.074619724879334</v>
+        <v>7.486086615296001</v>
       </c>
       <c r="S18">
-        <v>0.0419073422735527</v>
+        <v>0.02860913670267207</v>
       </c>
       <c r="T18">
-        <v>0.0419073422735527</v>
+        <v>0.02549399739025805</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.165035263868059</v>
+        <v>0.182912</v>
       </c>
       <c r="H19">
-        <v>0.165035263868059</v>
+        <v>0.365824</v>
       </c>
       <c r="I19">
-        <v>0.1482692420843608</v>
+        <v>0.129739974361072</v>
       </c>
       <c r="J19">
-        <v>0.1482692420843608</v>
+        <v>0.09040294133782634</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N19">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O19">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P19">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q19">
-        <v>0.230898417261528</v>
+        <v>0.2597700981333333</v>
       </c>
       <c r="R19">
-        <v>0.230898417261528</v>
+        <v>1.5586205888</v>
       </c>
       <c r="S19">
-        <v>0.009004430849886896</v>
+        <v>0.005956488587971717</v>
       </c>
       <c r="T19">
-        <v>0.009004430849886896</v>
+        <v>0.005307909361091266</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.165035263868059</v>
+        <v>0.182912</v>
       </c>
       <c r="H20">
-        <v>0.165035263868059</v>
+        <v>0.365824</v>
       </c>
       <c r="I20">
-        <v>0.1482692420843608</v>
+        <v>0.129739974361072</v>
       </c>
       <c r="J20">
-        <v>0.1482692420843608</v>
+        <v>0.09040294133782634</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N20">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O20">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P20">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q20">
-        <v>0.2014147314799298</v>
+        <v>0.2729664672853334</v>
       </c>
       <c r="R20">
-        <v>0.2014147314799298</v>
+        <v>1.637798803712</v>
       </c>
       <c r="S20">
-        <v>0.007854644666989449</v>
+        <v>0.006259079312698641</v>
       </c>
       <c r="T20">
-        <v>0.007854644666989449</v>
+        <v>0.005577552140832467</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.165035263868059</v>
+        <v>0.182912</v>
       </c>
       <c r="H21">
-        <v>0.165035263868059</v>
+        <v>0.365824</v>
       </c>
       <c r="I21">
-        <v>0.1482692420843608</v>
+        <v>0.129739974361072</v>
       </c>
       <c r="J21">
-        <v>0.1482692420843608</v>
+        <v>0.09040294133782634</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N21">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O21">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P21">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q21">
-        <v>2.207536583562699</v>
+        <v>3.701367814464001</v>
       </c>
       <c r="R21">
-        <v>2.207536583562699</v>
+        <v>14.805471257856</v>
       </c>
       <c r="S21">
-        <v>0.08608811940348396</v>
+        <v>0.08487179742844918</v>
       </c>
       <c r="T21">
-        <v>0.08608811940348396</v>
+        <v>0.05042028833036646</v>
       </c>
     </row>
   </sheetData>
